--- a/src/physion/acquisition/subjects/Yann/demo-Mouse.xlsx
+++ b/src/physion/acquisition/subjects/Yann/demo-Mouse.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -239,6 +241,12 @@
     <t>Méthode d'euthanasie</t>
   </si>
   <si>
+    <t>FOV1</t>
+  </si>
+  <si>
+    <t>FOV2</t>
+  </si>
+  <si>
     <t>ICM-010048-24</t>
   </si>
   <si>
@@ -327,31 +335,43 @@
   </si>
   <si>
     <t>CO2</t>
+  </si>
+  <si>
+    <t>(100,-100)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Tahoma"/>
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="13"/>
       <name val="Tahoma"/>
     </font>
   </fonts>
@@ -364,83 +384,282 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="14">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FFA9A9A9"/>
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color rgb="FFA9A9A9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color rgb="FFA9A9A9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFA9A9A9"/>
+        <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa9a9a9"/>
+      <rgbColor rgb="ffd3d3d3"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="5B9BD5"/>
@@ -461,85 +680,25 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,76 +707,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -628,544 +777,2036 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+  <dimension ref="A1:CA10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.57" customWidth="1"/>
-    <col min="2" max="2" width="3.57" customWidth="1"/>
-    <col min="3" max="3" width="8.57" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="28.57" customWidth="1"/>
-    <col min="6" max="6" width="28.57" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.29" customWidth="1"/>
-    <col min="9" max="9" width="6.43" customWidth="1"/>
-    <col min="10" max="10" width="11.57" customWidth="1"/>
-    <col min="11" max="11" width="10.57" customWidth="1"/>
-    <col min="12" max="12" width="13.43" customWidth="1"/>
-    <col min="13" max="13" width="30.71" customWidth="1"/>
-    <col min="14" max="14" width="20.29" customWidth="1"/>
-    <col min="15" max="15" width="10.43" customWidth="1"/>
-    <col min="16" max="16" width="9.57" customWidth="1"/>
-    <col min="17" max="17" width="12.43" customWidth="1"/>
-    <col min="18" max="18" width="8.43" customWidth="1"/>
-    <col min="19" max="19" width="18.57" customWidth="1"/>
-    <col min="20" max="20" width="8.86" customWidth="1"/>
-    <col min="21" max="21" width="28.57" customWidth="1"/>
-    <col min="22" max="22" width="90.86" customWidth="1"/>
-    <col min="23" max="23" width="6.43" customWidth="1"/>
-    <col min="24" max="24" width="11.43" customWidth="1"/>
-    <col min="25" max="25" width="10.71" customWidth="1"/>
-    <col min="26" max="26" width="11.86" customWidth="1"/>
-    <col min="27" max="27" width="9.86" customWidth="1"/>
-    <col min="28" max="28" width="5.86" customWidth="1"/>
-    <col min="29" max="29" width="7.71" customWidth="1"/>
-    <col min="30" max="30" width="38.86" customWidth="1"/>
-    <col min="31" max="31" width="13.14" customWidth="1"/>
-    <col min="32" max="32" width="15.57" customWidth="1"/>
-    <col min="33" max="33" width="10.43" customWidth="1"/>
-    <col min="34" max="34" width="30.86" customWidth="1"/>
-    <col min="35" max="35" width="8.86" customWidth="1"/>
-    <col min="36" max="36" width="9.86" customWidth="1"/>
-    <col min="37" max="37" width="6.43" customWidth="1"/>
-    <col min="38" max="38" width="10.43" customWidth="1"/>
-    <col min="39" max="39" width="8.14" customWidth="1"/>
-    <col min="40" max="40" width="13.43" customWidth="1"/>
-    <col min="41" max="41" width="36.57" customWidth="1"/>
-    <col min="42" max="42" width="12" customWidth="1"/>
-    <col min="43" max="43" width="13.86" customWidth="1"/>
-    <col min="44" max="44" width="15.43" customWidth="1"/>
-    <col min="45" max="45" width="12.14" customWidth="1"/>
-    <col min="46" max="46" width="28.43" customWidth="1"/>
-    <col min="47" max="47" width="4.71" customWidth="1"/>
-    <col min="48" max="48" width="19.43" customWidth="1"/>
-    <col min="49" max="49" width="18.43" customWidth="1"/>
-    <col min="50" max="50" width="13.29" customWidth="1"/>
-    <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="52" width="9" customWidth="1"/>
-    <col min="53" max="53" width="27.29" customWidth="1"/>
-    <col min="54" max="54" width="17.57" customWidth="1"/>
-    <col min="55" max="55" width="26" customWidth="1"/>
-    <col min="56" max="56" width="10.43" customWidth="1"/>
-    <col min="57" max="57" width="9.43" customWidth="1"/>
-    <col min="58" max="58" width="19" customWidth="1"/>
-    <col min="59" max="59" width="13.43" customWidth="1"/>
-    <col min="60" max="60" width="20.86" customWidth="1"/>
-    <col min="61" max="61" width="12" customWidth="1"/>
-    <col min="62" max="62" width="19.57" customWidth="1"/>
-    <col min="63" max="63" width="16.29" customWidth="1"/>
-    <col min="64" max="64" width="14.86" customWidth="1"/>
-    <col min="65" max="65" width="16.43" customWidth="1"/>
-    <col min="66" max="66" width="15.14" customWidth="1"/>
-    <col min="67" max="67" width="11.86" customWidth="1"/>
-    <col min="68" max="68" width="17.71" customWidth="1"/>
-    <col min="69" max="69" width="26.14" customWidth="1"/>
-    <col min="70" max="70" width="16.57" customWidth="1"/>
-    <col min="71" max="71" width="19.43" customWidth="1"/>
-    <col min="72" max="72" width="18.57" customWidth="1"/>
-    <col min="73" max="73" width="24.86" customWidth="1"/>
-    <col min="74" max="74" width="27.71" customWidth="1"/>
-    <col min="75" max="75" width="25.29" customWidth="1"/>
-    <col min="76" max="76" width="19.14" customWidth="1"/>
-    <col min="77" max="77" width="18" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.35156" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6719" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.3516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85156" style="1" customWidth="1"/>
+    <col min="21" max="21" width="28.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="90.8516" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.6719" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.8516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85156" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.85156" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.67188" style="1" customWidth="1"/>
+    <col min="30" max="30" width="38.8516" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1719" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5" style="1" customWidth="1"/>
+    <col min="34" max="34" width="30.8516" style="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85156" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9.85156" style="1" customWidth="1"/>
+    <col min="37" max="37" width="6.5" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.17188" style="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5" style="1" customWidth="1"/>
+    <col min="41" max="41" width="36.5" style="1" customWidth="1"/>
+    <col min="42" max="42" width="12" style="1" customWidth="1"/>
+    <col min="43" max="43" width="13.8516" style="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5" style="1" customWidth="1"/>
+    <col min="45" max="45" width="12.1719" style="1" customWidth="1"/>
+    <col min="46" max="46" width="28.5" style="1" customWidth="1"/>
+    <col min="47" max="47" width="4.67188" style="1" customWidth="1"/>
+    <col min="48" max="48" width="19.5" style="1" customWidth="1"/>
+    <col min="49" max="49" width="18.5" style="1" customWidth="1"/>
+    <col min="50" max="50" width="13.3516" style="1" customWidth="1"/>
+    <col min="51" max="52" width="9" style="1" customWidth="1"/>
+    <col min="53" max="53" width="27.3516" style="1" customWidth="1"/>
+    <col min="54" max="54" width="17.5" style="1" customWidth="1"/>
+    <col min="55" max="55" width="26" style="1" customWidth="1"/>
+    <col min="56" max="56" width="10.5" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5" style="1" customWidth="1"/>
+    <col min="58" max="58" width="19" style="1" customWidth="1"/>
+    <col min="59" max="59" width="13.5" style="1" customWidth="1"/>
+    <col min="60" max="60" width="20.8516" style="1" customWidth="1"/>
+    <col min="61" max="61" width="12" style="1" customWidth="1"/>
+    <col min="62" max="62" width="19.5" style="1" customWidth="1"/>
+    <col min="63" max="63" width="16.3516" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.8516" style="1" customWidth="1"/>
+    <col min="65" max="65" width="16.5" style="1" customWidth="1"/>
+    <col min="66" max="66" width="15.1719" style="1" customWidth="1"/>
+    <col min="67" max="67" width="11.8516" style="1" customWidth="1"/>
+    <col min="68" max="68" width="17.6719" style="1" customWidth="1"/>
+    <col min="69" max="69" width="26.1719" style="1" customWidth="1"/>
+    <col min="70" max="70" width="16.5" style="1" customWidth="1"/>
+    <col min="71" max="71" width="19.5" style="1" customWidth="1"/>
+    <col min="72" max="72" width="18.5" style="1" customWidth="1"/>
+    <col min="73" max="73" width="24.8516" style="1" customWidth="1"/>
+    <col min="74" max="74" width="27.6719" style="1" customWidth="1"/>
+    <col min="75" max="75" width="25.3516" style="1" customWidth="1"/>
+    <col min="76" max="76" width="19.1719" style="1" customWidth="1"/>
+    <col min="77" max="79" width="18" style="1" customWidth="1"/>
+    <col min="80" max="16384" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" customHeight="1"/>
+    <row r="1" ht="72" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="4"/>
+    </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c t="s" r="A2" s="1">
+      <c r="A2" t="s" s="5">
         <v>0</v>
       </c>
-      <c t="s" r="B2" s="1">
+      <c r="B2" t="s" s="5">
         <v>0</v>
       </c>
-      <c t="s" r="C2" s="1">
+      <c r="C2" t="s" s="5">
         <v>1</v>
       </c>
-      <c t="s" r="D2" s="1">
+      <c r="D2" t="s" s="5">
         <v>2</v>
       </c>
-      <c t="s" r="E2" s="1">
+      <c r="E2" t="s" s="5">
         <v>3</v>
       </c>
-      <c t="s" r="F2" s="1">
+      <c r="F2" t="s" s="5">
         <v>4</v>
       </c>
-      <c t="s" r="G2" s="1">
+      <c r="G2" t="s" s="5">
         <v>5</v>
       </c>
-      <c t="s" r="H2" s="1">
+      <c r="H2" t="s" s="5">
         <v>6</v>
       </c>
-      <c t="s" r="I2" s="1">
+      <c r="I2" t="s" s="5">
         <v>7</v>
       </c>
-      <c t="s" r="J2" s="1">
+      <c r="J2" t="s" s="5">
         <v>8</v>
       </c>
-      <c t="s" r="K2" s="1">
+      <c r="K2" t="s" s="5">
         <v>9</v>
       </c>
-      <c t="s" r="L2" s="1">
+      <c r="L2" t="s" s="5">
         <v>10</v>
       </c>
-      <c t="s" r="M2" s="1">
+      <c r="M2" t="s" s="5">
         <v>11</v>
       </c>
-      <c t="s" r="N2" s="1">
+      <c r="N2" t="s" s="5">
         <v>12</v>
       </c>
-      <c t="s" r="O2" s="1">
+      <c r="O2" t="s" s="5">
         <v>13</v>
       </c>
-      <c t="s" r="P2" s="1">
+      <c r="P2" t="s" s="5">
         <v>14</v>
       </c>
-      <c t="s" r="Q2" s="1">
+      <c r="Q2" t="s" s="5">
         <v>15</v>
       </c>
-      <c t="s" r="R2" s="1">
+      <c r="R2" t="s" s="5">
         <v>16</v>
       </c>
-      <c t="s" r="S2" s="1">
+      <c r="S2" t="s" s="5">
         <v>17</v>
       </c>
-      <c t="s" r="T2" s="1">
+      <c r="T2" t="s" s="5">
         <v>18</v>
       </c>
-      <c t="s" r="U2" s="1">
+      <c r="U2" t="s" s="5">
         <v>19</v>
       </c>
-      <c t="s" r="V2" s="1">
+      <c r="V2" t="s" s="5">
         <v>20</v>
       </c>
-      <c t="s" r="W2" s="1">
+      <c r="W2" t="s" s="5">
         <v>21</v>
       </c>
-      <c t="s" r="X2" s="1">
+      <c r="X2" t="s" s="5">
         <v>22</v>
       </c>
-      <c t="s" r="Y2" s="1">
+      <c r="Y2" t="s" s="5">
         <v>23</v>
       </c>
-      <c t="s" r="Z2" s="1">
+      <c r="Z2" t="s" s="5">
         <v>24</v>
       </c>
-      <c t="s" r="AA2" s="1">
+      <c r="AA2" t="s" s="5">
         <v>25</v>
       </c>
-      <c t="s" r="AB2" s="1">
+      <c r="AB2" t="s" s="5">
         <v>26</v>
       </c>
-      <c t="s" r="AC2" s="1">
+      <c r="AC2" t="s" s="5">
         <v>27</v>
       </c>
-      <c t="s" r="AD2" s="1">
+      <c r="AD2" t="s" s="5">
         <v>28</v>
       </c>
-      <c t="s" r="AE2" s="1">
+      <c r="AE2" t="s" s="5">
         <v>29</v>
       </c>
-      <c t="s" r="AF2" s="1">
+      <c r="AF2" t="s" s="5">
         <v>30</v>
       </c>
-      <c t="s" r="AG2" s="1">
+      <c r="AG2" t="s" s="5">
         <v>31</v>
       </c>
-      <c t="s" r="AH2" s="1">
+      <c r="AH2" t="s" s="5">
         <v>32</v>
       </c>
-      <c t="s" r="AI2" s="1">
+      <c r="AI2" t="s" s="5">
         <v>33</v>
       </c>
-      <c t="s" r="AJ2" s="1">
+      <c r="AJ2" t="s" s="5">
         <v>34</v>
       </c>
-      <c t="s" r="AK2" s="1">
+      <c r="AK2" t="s" s="5">
         <v>35</v>
       </c>
-      <c t="s" r="AL2" s="1">
+      <c r="AL2" t="s" s="5">
         <v>36</v>
       </c>
-      <c t="s" r="AM2" s="1">
+      <c r="AM2" t="s" s="5">
         <v>37</v>
       </c>
-      <c t="s" r="AN2" s="1">
+      <c r="AN2" t="s" s="5">
         <v>38</v>
       </c>
-      <c t="s" r="AO2" s="1">
+      <c r="AO2" t="s" s="5">
         <v>39</v>
       </c>
-      <c t="s" r="AP2" s="1">
+      <c r="AP2" t="s" s="5">
         <v>40</v>
       </c>
-      <c t="s" r="AQ2" s="1">
+      <c r="AQ2" t="s" s="5">
         <v>41</v>
       </c>
-      <c t="s" r="AR2" s="1">
+      <c r="AR2" t="s" s="5">
         <v>42</v>
       </c>
-      <c t="s" r="AS2" s="1">
+      <c r="AS2" t="s" s="5">
         <v>43</v>
       </c>
-      <c t="s" r="AT2" s="1">
+      <c r="AT2" t="s" s="5">
         <v>44</v>
       </c>
-      <c t="s" r="AU2" s="1">
+      <c r="AU2" t="s" s="5">
         <v>45</v>
       </c>
-      <c t="s" r="AV2" s="1">
+      <c r="AV2" t="s" s="5">
         <v>46</v>
       </c>
-      <c t="s" r="AW2" s="1">
+      <c r="AW2" t="s" s="5">
         <v>47</v>
       </c>
-      <c t="s" r="AX2" s="1">
+      <c r="AX2" t="s" s="5">
         <v>48</v>
       </c>
-      <c t="s" r="AY2" s="1">
+      <c r="AY2" t="s" s="5">
         <v>49</v>
       </c>
-      <c t="s" r="AZ2" s="1">
+      <c r="AZ2" t="s" s="5">
         <v>50</v>
       </c>
-      <c t="s" r="BA2" s="1">
+      <c r="BA2" t="s" s="5">
         <v>51</v>
       </c>
-      <c t="s" r="BB2" s="1">
+      <c r="BB2" t="s" s="5">
         <v>52</v>
       </c>
-      <c t="s" r="BC2" s="1">
+      <c r="BC2" t="s" s="5">
         <v>53</v>
       </c>
-      <c t="s" r="BD2" s="1">
+      <c r="BD2" t="s" s="5">
         <v>54</v>
       </c>
-      <c t="s" r="BE2" s="1">
+      <c r="BE2" t="s" s="5">
         <v>55</v>
       </c>
-      <c t="s" r="BF2" s="1">
+      <c r="BF2" t="s" s="5">
         <v>56</v>
       </c>
-      <c t="s" r="BG2" s="1">
+      <c r="BG2" t="s" s="5">
         <v>57</v>
       </c>
-      <c t="s" r="BH2" s="1">
+      <c r="BH2" t="s" s="5">
         <v>58</v>
       </c>
-      <c t="s" r="BI2" s="1">
+      <c r="BI2" t="s" s="5">
         <v>59</v>
       </c>
-      <c t="s" r="BJ2" s="1">
+      <c r="BJ2" t="s" s="5">
         <v>60</v>
       </c>
-      <c t="s" r="BK2" s="1">
+      <c r="BK2" t="s" s="5">
         <v>61</v>
       </c>
-      <c t="s" r="BL2" s="1">
+      <c r="BL2" t="s" s="5">
         <v>62</v>
       </c>
-      <c t="s" r="BM2" s="1">
+      <c r="BM2" t="s" s="5">
         <v>63</v>
       </c>
-      <c t="s" r="BN2" s="1">
+      <c r="BN2" t="s" s="5">
         <v>64</v>
       </c>
-      <c t="s" r="BO2" s="1">
+      <c r="BO2" t="s" s="5">
         <v>65</v>
       </c>
-      <c t="s" r="BP2" s="1">
+      <c r="BP2" t="s" s="5">
         <v>66</v>
       </c>
-      <c t="s" r="BQ2" s="1">
+      <c r="BQ2" t="s" s="5">
         <v>67</v>
       </c>
-      <c t="s" r="BR2" s="1">
+      <c r="BR2" t="s" s="5">
         <v>68</v>
       </c>
-      <c t="s" r="BS2" s="1">
+      <c r="BS2" t="s" s="5">
         <v>69</v>
       </c>
-      <c t="s" r="BT2" s="1">
+      <c r="BT2" t="s" s="5">
         <v>70</v>
       </c>
-      <c t="s" r="BU2" s="1">
+      <c r="BU2" t="s" s="5">
         <v>71</v>
       </c>
-      <c t="s" r="BV2" s="1">
+      <c r="BV2" t="s" s="5">
         <v>72</v>
       </c>
-      <c t="s" r="BW2" s="1">
+      <c r="BW2" t="s" s="5">
         <v>73</v>
       </c>
-      <c t="s" r="BX2" s="1">
+      <c r="BX2" t="s" s="5">
         <v>74</v>
       </c>
-      <c t="s" r="BY2" s="1">
+      <c r="BY2" t="s" s="5">
         <v>75</v>
+      </c>
+      <c r="BZ2" t="s" s="5">
+        <v>76</v>
+      </c>
+      <c r="CA2" t="s" s="5">
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c t="s" r="D3" s="4">
-        <v>76</v>
-      </c>
-      <c t="s" r="E3" s="2">
-        <v>77</v>
-      </c>
-      <c t="s" r="F3" s="2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" t="s" s="8">
         <v>78</v>
       </c>
-      <c t="s" r="G3" s="4">
+      <c r="E3" t="s" s="8">
         <v>79</v>
       </c>
-      <c r="H3" s="4"/>
-      <c t="s" r="I3" s="4">
+      <c r="F3" t="s" s="8">
         <v>80</v>
       </c>
-      <c r="J3" s="5">
+      <c r="G3" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" t="s" s="8">
+        <v>82</v>
+      </c>
+      <c r="J3" s="9">
         <v>45388</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="10">
         <v>68</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="10">
         <v>9</v>
       </c>
-      <c t="s" r="M3" s="4">
-        <v>81</v>
-      </c>
-      <c t="s" r="N3" s="4">
-        <v>82</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c t="s" r="Q3" s="2">
+      <c r="M3" t="s" s="8">
         <v>83</v>
       </c>
-      <c r="R3" s="2"/>
-      <c t="s" r="S3" s="4">
+      <c r="N3" t="s" s="8">
         <v>84</v>
       </c>
-      <c t="s" r="T3" s="4">
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" t="s" s="8">
         <v>85</v>
       </c>
-      <c t="s" r="U3" s="2">
+      <c r="R3" s="6"/>
+      <c r="S3" t="s" s="8">
         <v>86</v>
       </c>
-      <c t="s" r="V3" s="4">
+      <c r="T3" t="s" s="8">
         <v>87</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="6"/>
-      <c t="s" r="Z3" s="4">
+      <c r="U3" t="s" s="8">
         <v>88</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c t="s" r="AB3" s="4">
+      <c r="V3" t="s" s="8">
         <v>89</v>
       </c>
-      <c t="s" r="AC3" s="4">
+      <c r="W3" s="8"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" t="s" s="8">
         <v>90</v>
       </c>
-      <c t="s" r="AD3" s="4">
+      <c r="AA3" s="8"/>
+      <c r="AB3" t="s" s="8">
         <v>91</v>
       </c>
-      <c r="AE3" s="4"/>
-      <c t="s" r="AF3" s="6">
+      <c r="AC3" t="s" s="8">
         <v>92</v>
       </c>
-      <c r="AG3" s="7"/>
-      <c t="s" r="AH3" s="4">
+      <c r="AD3" t="s" s="8">
         <v>93</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c t="s" r="AJ3" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c t="s" r="AO3" s="4">
+      <c r="AE3" s="8"/>
+      <c r="AF3" t="s" s="11">
         <v>94</v>
       </c>
-      <c r="AP3" s="5">
+      <c r="AG3" s="12"/>
+      <c r="AH3" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" t="s" s="8">
+        <v>96</v>
+      </c>
+      <c r="AP3" s="9">
         <v>45456</v>
       </c>
-      <c t="s" r="AQ3" s="4">
-        <v>95</v>
-      </c>
-      <c t="s" r="AR3" s="4">
-        <v>96</v>
-      </c>
-      <c r="AS3" s="4"/>
-      <c t="s" r="AT3" s="4">
+      <c r="AQ3" t="s" s="8">
         <v>97</v>
       </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="2"/>
-      <c t="s" r="AW3" s="4">
+      <c r="AR3" t="s" s="8">
         <v>98</v>
       </c>
-      <c t="s" r="AX3" s="4">
+      <c r="AS3" s="8"/>
+      <c r="AT3" t="s" s="8">
         <v>99</v>
       </c>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-      <c r="BE3" s="4"/>
-      <c r="BF3" s="4"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="4"/>
-      <c t="s" r="BM3" s="2">
-        <v>83</v>
-      </c>
-      <c r="BN3" s="4"/>
-      <c t="s" r="BO3" s="4">
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" t="s" s="8">
         <v>100</v>
       </c>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="8"/>
-      <c r="BR3" s="4"/>
-      <c t="s" r="BS3" s="2">
-        <v>83</v>
-      </c>
-      <c r="BT3" s="5">
+      <c r="AX3" t="s" s="8">
+        <v>101</v>
+      </c>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="13"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+      <c r="BK3" s="11"/>
+      <c r="BL3" s="8"/>
+      <c r="BM3" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="BN3" s="8"/>
+      <c r="BO3" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="BP3" s="8"/>
+      <c r="BQ3" s="13"/>
+      <c r="BR3" s="8"/>
+      <c r="BS3" t="s" s="8">
+        <v>85</v>
+      </c>
+      <c r="BT3" s="9">
         <v>45388</v>
       </c>
-      <c t="s" r="BU3" s="4">
-        <v>101</v>
-      </c>
-      <c t="s" r="BV3" s="4">
-        <v>102</v>
-      </c>
-      <c t="s" r="BW3" s="4">
+      <c r="BU3" t="s" s="8">
         <v>103</v>
       </c>
-      <c t="s" r="BX3" s="4">
+      <c r="BV3" t="s" s="8">
         <v>104</v>
       </c>
-      <c t="s" r="BY3" s="4">
+      <c r="BW3" t="s" s="8">
         <v>105</v>
       </c>
+      <c r="BX3" t="s" s="8">
+        <v>106</v>
+      </c>
+      <c r="BY3" t="s" s="8">
+        <v>107</v>
+      </c>
+      <c r="BZ3" t="s" s="8">
+        <v>108</v>
+      </c>
+      <c r="CA3" t="s" s="8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="15"/>
+      <c r="BQ4" s="15"/>
+      <c r="BR4" s="15"/>
+      <c r="BS4" s="15"/>
+      <c r="BT4" s="15"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="15"/>
+      <c r="BW4" s="15"/>
+      <c r="BX4" s="15"/>
+      <c r="BY4" s="15"/>
+      <c r="BZ4" s="15"/>
+      <c r="CA4" s="16"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="18"/>
+      <c r="AP5" s="18"/>
+      <c r="AQ5" s="18"/>
+      <c r="AR5" s="18"/>
+      <c r="AS5" s="18"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="18"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="18"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="18"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="18"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="18"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="18"/>
+      <c r="BF5" s="18"/>
+      <c r="BG5" s="18"/>
+      <c r="BH5" s="18"/>
+      <c r="BI5" s="18"/>
+      <c r="BJ5" s="18"/>
+      <c r="BK5" s="18"/>
+      <c r="BL5" s="18"/>
+      <c r="BM5" s="18"/>
+      <c r="BN5" s="18"/>
+      <c r="BO5" s="18"/>
+      <c r="BP5" s="18"/>
+      <c r="BQ5" s="18"/>
+      <c r="BR5" s="18"/>
+      <c r="BS5" s="18"/>
+      <c r="BT5" s="18"/>
+      <c r="BU5" s="18"/>
+      <c r="BV5" s="18"/>
+      <c r="BW5" s="18"/>
+      <c r="BX5" s="18"/>
+      <c r="BY5" s="18"/>
+      <c r="BZ5" s="18"/>
+      <c r="CA5" s="19"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="18"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="18"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="18"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
+      <c r="BK6" s="18"/>
+      <c r="BL6" s="18"/>
+      <c r="BM6" s="18"/>
+      <c r="BN6" s="18"/>
+      <c r="BO6" s="18"/>
+      <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="18"/>
+      <c r="BU6" s="18"/>
+      <c r="BV6" s="18"/>
+      <c r="BW6" s="18"/>
+      <c r="BX6" s="18"/>
+      <c r="BY6" s="18"/>
+      <c r="BZ6" s="18"/>
+      <c r="CA6" s="19"/>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18"/>
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="18"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="18"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="18"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
+      <c r="BK7" s="18"/>
+      <c r="BL7" s="18"/>
+      <c r="BM7" s="18"/>
+      <c r="BN7" s="18"/>
+      <c r="BO7" s="18"/>
+      <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="18"/>
+      <c r="BS7" s="18"/>
+      <c r="BT7" s="18"/>
+      <c r="BU7" s="18"/>
+      <c r="BV7" s="18"/>
+      <c r="BW7" s="18"/>
+      <c r="BX7" s="18"/>
+      <c r="BY7" s="18"/>
+      <c r="BZ7" s="18"/>
+      <c r="CA7" s="19"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18"/>
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18"/>
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="18"/>
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
+      <c r="BK8" s="18"/>
+      <c r="BL8" s="18"/>
+      <c r="BM8" s="18"/>
+      <c r="BN8" s="18"/>
+      <c r="BO8" s="18"/>
+      <c r="BP8" s="18"/>
+      <c r="BQ8" s="18"/>
+      <c r="BR8" s="18"/>
+      <c r="BS8" s="18"/>
+      <c r="BT8" s="18"/>
+      <c r="BU8" s="18"/>
+      <c r="BV8" s="18"/>
+      <c r="BW8" s="18"/>
+      <c r="BX8" s="18"/>
+      <c r="BY8" s="18"/>
+      <c r="BZ8" s="18"/>
+      <c r="CA8" s="19"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18"/>
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18"/>
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18"/>
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18"/>
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18"/>
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18"/>
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18"/>
+      <c r="CA9" s="19"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="21"/>
+      <c r="AM10" s="21"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="21"/>
+      <c r="AS10" s="21"/>
+      <c r="AT10" s="21"/>
+      <c r="AU10" s="21"/>
+      <c r="AV10" s="21"/>
+      <c r="AW10" s="21"/>
+      <c r="AX10" s="21"/>
+      <c r="AY10" s="21"/>
+      <c r="AZ10" s="21"/>
+      <c r="BA10" s="21"/>
+      <c r="BB10" s="21"/>
+      <c r="BC10" s="21"/>
+      <c r="BD10" s="21"/>
+      <c r="BE10" s="21"/>
+      <c r="BF10" s="21"/>
+      <c r="BG10" s="21"/>
+      <c r="BH10" s="21"/>
+      <c r="BI10" s="21"/>
+      <c r="BJ10" s="21"/>
+      <c r="BK10" s="21"/>
+      <c r="BL10" s="21"/>
+      <c r="BM10" s="21"/>
+      <c r="BN10" s="21"/>
+      <c r="BO10" s="21"/>
+      <c r="BP10" s="21"/>
+      <c r="BQ10" s="21"/>
+      <c r="BR10" s="21"/>
+      <c r="BS10" s="21"/>
+      <c r="BT10" s="21"/>
+      <c r="BU10" s="21"/>
+      <c r="BV10" s="21"/>
+      <c r="BW10" s="21"/>
+      <c r="BX10" s="21"/>
+      <c r="BY10" s="21"/>
+      <c r="BZ10" s="21"/>
+      <c r="CA10" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>